--- a/data/output/FCFS.xlsx
+++ b/data/output/FCFS.xlsx
@@ -490,7 +490,7 @@
         <v>937</v>
       </c>
       <c r="F2" t="n">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G2" t="n">
         <v>952</v>
@@ -515,7 +515,7 @@
         <v>375</v>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G3" t="n">
         <v>390</v>
@@ -540,7 +540,7 @@
         <v>221</v>
       </c>
       <c r="F4" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G4" t="n">
         <v>232</v>
@@ -565,7 +565,7 @@
         <v>521</v>
       </c>
       <c r="F5" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G5" t="n">
         <v>536</v>
@@ -590,7 +590,7 @@
         <v>296</v>
       </c>
       <c r="F6" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G6" t="n">
         <v>310</v>
@@ -615,7 +615,7 @@
         <v>966</v>
       </c>
       <c r="F7" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G7" t="n">
         <v>978</v>
@@ -640,7 +640,7 @@
         <v>1053</v>
       </c>
       <c r="F8" t="n">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G8" t="n">
         <v>1066</v>
@@ -665,7 +665,7 @@
         <v>112</v>
       </c>
       <c r="F9" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G9" t="n">
         <v>119</v>
@@ -690,7 +690,7 @@
         <v>698</v>
       </c>
       <c r="F10" t="n">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G10" t="n">
         <v>716</v>
@@ -715,7 +715,7 @@
         <v>388</v>
       </c>
       <c r="F11" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G11" t="n">
         <v>397</v>
@@ -740,7 +740,7 @@
         <v>140</v>
       </c>
       <c r="F12" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G12" t="n">
         <v>152</v>
@@ -765,7 +765,7 @@
         <v>256</v>
       </c>
       <c r="F13" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G13" t="n">
         <v>269</v>
@@ -790,7 +790,7 @@
         <v>764</v>
       </c>
       <c r="F14" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G14" t="n">
         <v>776</v>
@@ -815,7 +815,7 @@
         <v>536</v>
       </c>
       <c r="F15" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G15" t="n">
         <v>551</v>
@@ -840,7 +840,7 @@
         <v>776</v>
       </c>
       <c r="F16" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G16" t="n">
         <v>787</v>
@@ -865,7 +865,7 @@
         <v>310</v>
       </c>
       <c r="F17" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G17" t="n">
         <v>330</v>
@@ -890,7 +890,7 @@
         <v>204</v>
       </c>
       <c r="F18" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G18" t="n">
         <v>214</v>
@@ -915,7 +915,7 @@
         <v>648</v>
       </c>
       <c r="F19" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G19" t="n">
         <v>661</v>
@@ -940,7 +940,7 @@
         <v>861</v>
       </c>
       <c r="F20" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G20" t="n">
         <v>868</v>
@@ -965,7 +965,7 @@
         <v>605</v>
       </c>
       <c r="F21" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G21" t="n">
         <v>621</v>
@@ -990,7 +990,7 @@
         <v>118</v>
       </c>
       <c r="F22" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" t="n">
         <v>124</v>
@@ -1015,7 +1015,7 @@
         <v>993</v>
       </c>
       <c r="F23" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G23" t="n">
         <v>1013</v>
@@ -1040,7 +1040,7 @@
         <v>86</v>
       </c>
       <c r="F24" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G24" t="n">
         <v>102</v>
@@ -1065,7 +1065,7 @@
         <v>952</v>
       </c>
       <c r="F25" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G25" t="n">
         <v>967</v>
@@ -1090,7 +1090,7 @@
         <v>920</v>
       </c>
       <c r="F26" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G26" t="n">
         <v>925</v>
@@ -1115,7 +1115,7 @@
         <v>851</v>
       </c>
       <c r="F27" t="n">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G27" t="n">
         <v>862</v>
@@ -1140,7 +1140,7 @@
         <v>1093</v>
       </c>
       <c r="F28" t="n">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G28" t="n">
         <v>1106</v>
@@ -1165,7 +1165,7 @@
         <v>397</v>
       </c>
       <c r="F29" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G29" t="n">
         <v>402</v>
@@ -1190,7 +1190,7 @@
         <v>476</v>
       </c>
       <c r="F30" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G30" t="n">
         <v>489</v>
@@ -1215,7 +1215,7 @@
         <v>167</v>
       </c>
       <c r="F31" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G31" t="n">
         <v>178</v>
@@ -1240,7 +1240,7 @@
         <v>1037</v>
       </c>
       <c r="F32" t="n">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G32" t="n">
         <v>1054</v>
@@ -1265,7 +1265,7 @@
         <v>1078</v>
       </c>
       <c r="F33" t="n">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G33" t="n">
         <v>1094</v>
@@ -1290,7 +1290,7 @@
         <v>890</v>
       </c>
       <c r="F34" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G34" t="n">
         <v>910</v>
@@ -1315,7 +1315,7 @@
         <v>232</v>
       </c>
       <c r="F35" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G35" t="n">
         <v>238</v>
@@ -1340,7 +1340,7 @@
         <v>1029</v>
       </c>
       <c r="F36" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G36" t="n">
         <v>1038</v>
@@ -1365,7 +1365,7 @@
         <v>1013</v>
       </c>
       <c r="F37" t="n">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G37" t="n">
         <v>1024</v>
@@ -1390,7 +1390,7 @@
         <v>795</v>
       </c>
       <c r="F38" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G38" t="n">
         <v>814</v>
@@ -1415,7 +1415,7 @@
         <v>1124</v>
       </c>
       <c r="F39" t="n">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G39" t="n">
         <v>1137</v>
@@ -1440,7 +1440,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G40" t="n">
         <v>61</v>
@@ -1465,7 +1465,7 @@
         <v>61</v>
       </c>
       <c r="F41" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G41" t="n">
         <v>70</v>
@@ -1490,7 +1490,7 @@
         <v>978</v>
       </c>
       <c r="F42" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G42" t="n">
         <v>994</v>
@@ -1515,7 +1515,7 @@
         <v>1137</v>
       </c>
       <c r="F43" t="n">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="G43" t="n">
         <v>1150</v>
@@ -1540,7 +1540,7 @@
         <v>330</v>
       </c>
       <c r="F44" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G44" t="n">
         <v>348</v>
@@ -1565,7 +1565,7 @@
         <v>124</v>
       </c>
       <c r="F45" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G45" t="n">
         <v>141</v>
@@ -1590,7 +1590,7 @@
         <v>620</v>
       </c>
       <c r="F46" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G46" t="n">
         <v>636</v>
@@ -1615,7 +1615,7 @@
         <v>730</v>
       </c>
       <c r="F47" t="n">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G47" t="n">
         <v>737</v>
@@ -1640,7 +1640,7 @@
         <v>269</v>
       </c>
       <c r="F48" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G48" t="n">
         <v>276</v>
@@ -1665,7 +1665,7 @@
         <v>214</v>
       </c>
       <c r="F49" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G49" t="n">
         <v>222</v>
@@ -1690,7 +1690,7 @@
         <v>517</v>
       </c>
       <c r="F50" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G50" t="n">
         <v>523</v>
@@ -1715,7 +1715,7 @@
         <v>551</v>
       </c>
       <c r="F51" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G51" t="n">
         <v>563</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="n">
         <v>15</v>
@@ -1765,7 +1765,7 @@
         <v>488</v>
       </c>
       <c r="F53" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G53" t="n">
         <v>508</v>
@@ -1790,7 +1790,7 @@
         <v>814</v>
       </c>
       <c r="F54" t="n">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G54" t="n">
         <v>834</v>
@@ -1815,7 +1815,7 @@
         <v>348</v>
       </c>
       <c r="F55" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G55" t="n">
         <v>357</v>
@@ -1840,7 +1840,7 @@
         <v>102</v>
       </c>
       <c r="F56" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G56" t="n">
         <v>113</v>
@@ -1865,7 +1865,7 @@
         <v>787</v>
       </c>
       <c r="F57" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G57" t="n">
         <v>797</v>
@@ -1890,7 +1890,7 @@
         <v>436</v>
       </c>
       <c r="F58" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G58" t="n">
         <v>442</v>
@@ -1915,7 +1915,7 @@
         <v>1150</v>
       </c>
       <c r="F59" t="n">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G59" t="n">
         <v>1161</v>
@@ -1940,7 +1940,7 @@
         <v>661</v>
       </c>
       <c r="F60" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G60" t="n">
         <v>675</v>
@@ -1965,7 +1965,7 @@
         <v>178</v>
       </c>
       <c r="F61" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G61" t="n">
         <v>196</v>
@@ -1990,7 +1990,7 @@
         <v>402</v>
       </c>
       <c r="F62" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G62" t="n">
         <v>421</v>
@@ -2015,7 +2015,7 @@
         <v>910</v>
       </c>
       <c r="F63" t="n">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G63" t="n">
         <v>922</v>
@@ -2040,7 +2040,7 @@
         <v>357</v>
       </c>
       <c r="F64" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G64" t="n">
         <v>371</v>
@@ -2065,7 +2065,7 @@
         <v>1066</v>
       </c>
       <c r="F65" t="n">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="G65" t="n">
         <v>1073</v>
@@ -2090,7 +2090,7 @@
         <v>1023</v>
       </c>
       <c r="F66" t="n">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G66" t="n">
         <v>1030</v>
@@ -2115,7 +2115,7 @@
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G67" t="n">
         <v>29</v>
@@ -2140,7 +2140,7 @@
         <v>1073</v>
       </c>
       <c r="F68" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="G68" t="n">
         <v>1079</v>
@@ -2165,7 +2165,7 @@
         <v>682</v>
       </c>
       <c r="F69" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G69" t="n">
         <v>692</v>
@@ -2190,7 +2190,7 @@
         <v>737</v>
       </c>
       <c r="F70" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G70" t="n">
         <v>748</v>
@@ -2215,7 +2215,7 @@
         <v>562</v>
       </c>
       <c r="F71" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G71" t="n">
         <v>568</v>
@@ -2240,7 +2240,7 @@
         <v>238</v>
       </c>
       <c r="F72" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G72" t="n">
         <v>247</v>
@@ -2265,7 +2265,7 @@
         <v>276</v>
       </c>
       <c r="F73" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G73" t="n">
         <v>283</v>
@@ -2290,7 +2290,7 @@
         <v>1161</v>
       </c>
       <c r="F74" t="n">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G74" t="n">
         <v>1180</v>
@@ -2315,7 +2315,7 @@
         <v>636</v>
       </c>
       <c r="F75" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G75" t="n">
         <v>649</v>
@@ -2340,7 +2340,7 @@
         <v>442</v>
       </c>
       <c r="F76" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G76" t="n">
         <v>461</v>
@@ -2365,7 +2365,7 @@
         <v>568</v>
       </c>
       <c r="F77" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G77" t="n">
         <v>583</v>
@@ -2390,7 +2390,7 @@
         <v>675</v>
       </c>
       <c r="F78" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G78" t="n">
         <v>684</v>
@@ -2415,7 +2415,7 @@
         <v>925</v>
       </c>
       <c r="F79" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G79" t="n">
         <v>938</v>
@@ -2440,7 +2440,7 @@
         <v>868</v>
       </c>
       <c r="F80" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G80" t="n">
         <v>878</v>
@@ -2465,7 +2465,7 @@
         <v>461</v>
       </c>
       <c r="F81" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G81" t="n">
         <v>476</v>
@@ -2490,7 +2490,7 @@
         <v>834</v>
       </c>
       <c r="F82" t="n">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G82" t="n">
         <v>852</v>
@@ -2515,7 +2515,7 @@
         <v>283</v>
       </c>
       <c r="F83" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G83" t="n">
         <v>297</v>
@@ -2540,7 +2540,7 @@
         <v>1193</v>
       </c>
       <c r="F84" t="n">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G84" t="n">
         <v>1208</v>
@@ -2565,7 +2565,7 @@
         <v>196</v>
       </c>
       <c r="F85" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G85" t="n">
         <v>205</v>
@@ -2590,7 +2590,7 @@
         <v>371</v>
       </c>
       <c r="F86" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G86" t="n">
         <v>376</v>
@@ -2615,7 +2615,7 @@
         <v>601</v>
       </c>
       <c r="F87" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G87" t="n">
         <v>606</v>
@@ -2640,7 +2640,7 @@
         <v>152</v>
       </c>
       <c r="F88" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>163</v>
@@ -2665,7 +2665,7 @@
         <v>163</v>
       </c>
       <c r="F89" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>168</v>
@@ -2690,7 +2690,7 @@
         <v>1106</v>
       </c>
       <c r="F90" t="n">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="G90" t="n">
         <v>1125</v>
@@ -2715,7 +2715,7 @@
         <v>70</v>
       </c>
       <c r="F91" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G91" t="n">
         <v>87</v>
@@ -2740,7 +2740,7 @@
         <v>583</v>
       </c>
       <c r="F92" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G92" t="n">
         <v>602</v>
@@ -2765,7 +2765,7 @@
         <v>247</v>
       </c>
       <c r="F93" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G93" t="n">
         <v>257</v>
@@ -2790,7 +2790,7 @@
         <v>715</v>
       </c>
       <c r="F94" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G94" t="n">
         <v>732</v>
@@ -2815,7 +2815,7 @@
         <v>692</v>
       </c>
       <c r="F95" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G95" t="n">
         <v>700</v>
@@ -2840,7 +2840,7 @@
         <v>1180</v>
       </c>
       <c r="F96" t="n">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="G96" t="n">
         <v>1194</v>
@@ -2865,7 +2865,7 @@
         <v>420</v>
       </c>
       <c r="F97" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G97" t="n">
         <v>437</v>
@@ -2890,7 +2890,7 @@
         <v>748</v>
       </c>
       <c r="F98" t="n">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G98" t="n">
         <v>765</v>
@@ -2915,7 +2915,7 @@
         <v>29</v>
       </c>
       <c r="F99" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G99" t="n">
         <v>43</v>
@@ -2940,7 +2940,7 @@
         <v>508</v>
       </c>
       <c r="F100" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G100" t="n">
         <v>518</v>
@@ -2965,7 +2965,7 @@
         <v>878</v>
       </c>
       <c r="F101" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G101" t="n">
         <v>891</v>
